--- a/data/predictions/gender/gay_marr/leveled/leanrepublican.xlsx
+++ b/data/predictions/gender/gay_marr/leveled/leanrepublican.xlsx
@@ -739,19 +739,19 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.2773290184320141</v>
+        <v>0.2176718367531648</v>
       </c>
       <c r="D34">
-        <v>0.1330487856771636</v>
+        <v>0.1260112842348502</v>
       </c>
       <c r="G34">
         <v>0.1028674569153214</v>
       </c>
       <c r="I34">
-        <v>0.3242600862879206</v>
+        <v>0.288620448746491</v>
       </c>
       <c r="J34">
-        <v>0.3818386756799146</v>
+        <v>0.373094115476476</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -759,19 +759,19 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.2773290184320141</v>
+        <v>0.1094719426241554</v>
       </c>
       <c r="D35">
-        <v>0.1293587389338474</v>
+        <v>0.09485376503675444</v>
       </c>
       <c r="G35">
         <v>0.08456966566853691</v>
       </c>
       <c r="I35">
-        <v>0.3536349843099238</v>
+        <v>0.3409400303411998</v>
       </c>
       <c r="J35">
-        <v>0.4103017331856306</v>
+        <v>0.3389797796106712</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -779,19 +779,19 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.2773290184320141</v>
+        <v>-0.03406754218379032</v>
       </c>
       <c r="D36">
-        <v>0.1267969266223141</v>
+        <v>0.1213605804083911</v>
       </c>
       <c r="G36">
         <v>0.06728722920758191</v>
       </c>
       <c r="I36">
-        <v>0.3579219791312183</v>
+        <v>0.3876907951413716</v>
       </c>
       <c r="J36">
-        <v>0.443962182140141</v>
+        <v>0.3720642285233678</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -799,19 +799,19 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>0.2773290184320141</v>
+        <v>-0.09772156845883748</v>
       </c>
       <c r="D37">
-        <v>0.1241775753826034</v>
+        <v>0.15913337351768</v>
       </c>
       <c r="G37">
         <v>0.04977291147774813</v>
       </c>
       <c r="I37">
-        <v>0.3719480522554064</v>
+        <v>0.3764928968589197</v>
       </c>
       <c r="J37">
-        <v>0.4798682364188613</v>
+        <v>0.4872851963745163</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -819,19 +819,19 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>0.2773290184320141</v>
+        <v>0.06383914952031916</v>
       </c>
       <c r="D38">
-        <v>0.1215611585758107</v>
+        <v>0.1387633943901938</v>
       </c>
       <c r="G38">
         <v>0.03231154954583567</v>
       </c>
       <c r="I38">
-        <v>0.4084649076922146</v>
+        <v>0.3345863416345946</v>
       </c>
       <c r="J38">
-        <v>0.5167445357371945</v>
+        <v>0.5060396710924767</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -839,19 +839,19 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>0.2773290184320141</v>
+        <v>0.02383797358163922</v>
       </c>
       <c r="D39">
-        <v>0.1189445921156125</v>
+        <v>0.1716508193775771</v>
       </c>
       <c r="G39">
         <v>0.01483809385340929</v>
       </c>
       <c r="I39">
-        <v>0.4354844968315261</v>
+        <v>0.418724662824432</v>
       </c>
       <c r="J39">
-        <v>0.5540400429309029</v>
+        <v>0.6028160564839372</v>
       </c>
     </row>
   </sheetData>
